--- a/Project-2/Random Synchronization.xlsx
+++ b/Project-2/Random Synchronization.xlsx
@@ -749,7 +749,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -853,6 +853,9 @@
     <row r="10" spans="1:4">
       <c r="A10">
         <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>7</v>
